--- a/data/trans_orig/Q64C-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Estudios-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>41.81201808635793</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39.60814346342558</v>
+        <v>39.60814346342557</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>37.98480995445428</v>
@@ -693,7 +693,7 @@
         <v>39.95284031266618</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>37.26655559235262</v>
+        <v>37.26655559235263</v>
       </c>
     </row>
     <row r="5">
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>40.72539499660152</v>
+        <v>40.7567800052834</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>42.45680874706323</v>
+        <v>42.30526515986759</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>39.40766849193125</v>
+        <v>39.63122586950993</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>37.80975293074681</v>
+        <v>37.79740662043972</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>35.44172155320692</v>
+        <v>35.3018946303291</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>34.16052329240751</v>
+        <v>34.25159139466998</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>33.4563765998809</v>
+        <v>33.02615342869601</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>30.25325953283898</v>
+        <v>30.2786405478911</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>39.66221343749973</v>
+        <v>39.57085801898672</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39.34282405350925</v>
+        <v>39.13111624916176</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38.15935155755547</v>
+        <v>38.14089649367316</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>35.82258782572242</v>
+        <v>35.85261889376141</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>43.04404854893085</v>
+        <v>43.00594274605417</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45.91060858302043</v>
+        <v>45.64671426588509</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>44.03804922891084</v>
+        <v>43.98363843607004</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>41.20688128488474</v>
+        <v>41.4174010605108</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>41.18939512727738</v>
+        <v>40.86514386830049</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>38.76467322484756</v>
+        <v>38.7545207789198</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>39.6513809257065</v>
+        <v>39.43060776629419</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>35.24581608169763</v>
+        <v>35.18100461751147</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>41.91536949767689</v>
+        <v>41.89352192715049</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>42.03689665798624</v>
+        <v>42.04853726208256</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>41.94906563069737</v>
+        <v>41.93049334599609</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>38.63345964477334</v>
+        <v>38.64596851501351</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>41.18964322917893</v>
+        <v>41.15192473499182</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>40.67307719010635</v>
+        <v>40.69836807080431</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>39.26626821888917</v>
+        <v>39.20264888887636</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>40.09812811292552</v>
+        <v>40.04878456205212</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>36.2087401708519</v>
+        <v>36.25567846274232</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>34.88976339768508</v>
+        <v>34.83382713471504</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>34.51388520134834</v>
+        <v>34.35900681040579</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>35.10636552477842</v>
+        <v>35.1077487169578</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>39.70163041249857</v>
+        <v>39.77003646752311</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>38.64079306856713</v>
+        <v>38.67703341976672</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37.46961121074411</v>
+        <v>37.4751944094299</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>38.13599319776768</v>
+        <v>38.10430392590903</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>42.41291464901663</v>
+        <v>42.36340500559124</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>41.91978312995893</v>
+        <v>41.94331294329131</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>40.60830140294418</v>
+        <v>40.56804252456358</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>41.17881713779632</v>
+        <v>41.13292934013901</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>38.24466649690721</v>
+        <v>38.34321606163896</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>36.86625645666111</v>
+        <v>36.91663844282011</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>36.37790843310135</v>
+        <v>36.27167196034639</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>36.23957766306516</v>
+        <v>36.25272527628775</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>40.81945501604698</v>
+        <v>40.85785161249928</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39.81659564083192</v>
+        <v>39.82880879219632</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38.63395580926374</v>
+        <v>38.64798833585471</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>38.94625013524822</v>
+        <v>38.96345457275719</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>37.24641909203044</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38.13238449563183</v>
+        <v>38.13238449563185</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>36.45251471345339</v>
@@ -953,7 +953,7 @@
         <v>33.58635321184628</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>35.48717403529493</v>
+        <v>35.48717403529494</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>37.70759189054837</v>
@@ -965,7 +965,7 @@
         <v>35.51454752581186</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>36.80191239287138</v>
+        <v>36.80191239287137</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>37.59713721253446</v>
+        <v>37.65586213241945</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>38.32087409058657</v>
+        <v>38.40633221168505</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>36.13545953808119</v>
+        <v>36.06197649416493</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>37.22124590094635</v>
+        <v>37.02152283322098</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>35.38911688966294</v>
+        <v>35.43491885031465</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>34.37106700420657</v>
+        <v>34.30931676260904</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>32.29095932611301</v>
+        <v>32.3406066484164</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>34.63333609509886</v>
+        <v>34.59482355688297</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>36.98929422073675</v>
+        <v>37.00730247982062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>36.98078241191767</v>
+        <v>37.01768303876862</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34.65718469360985</v>
+        <v>34.66273460280482</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>36.21996160739776</v>
+        <v>36.17998469466833</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>39.45033770452543</v>
+        <v>39.59498161365709</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>40.6295257801271</v>
+        <v>40.5627763103593</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38.31471470187905</v>
+        <v>38.26704050112919</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>38.98553374046134</v>
+        <v>38.92120798893075</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>37.45815076599419</v>
+        <v>37.55167721264833</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>36.75623410825416</v>
+        <v>36.74528675031861</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>34.7771390903593</v>
+        <v>34.8905289528053</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>36.26221867501255</v>
+        <v>36.20811374081809</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>38.34341423131191</v>
+        <v>38.40664806739188</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>38.63788262511788</v>
+        <v>38.6965190847027</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36.4242141905559</v>
+        <v>36.36222299340992</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>37.36962467935183</v>
+        <v>37.34795658158654</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>39.44830501849297</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39.88459552962091</v>
+        <v>39.8845955296209</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>37.13147130810182</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>40.67372033544407</v>
+        <v>40.66708590724869</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>40.72782693213831</v>
+        <v>40.73269444339848</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38.89520289952611</v>
+        <v>38.80448196932634</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39.45221019332416</v>
+        <v>39.42660214547312</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>36.37315037885321</v>
+        <v>36.41483150857538</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>35.10072559425562</v>
+        <v>35.17925534173037</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>34.14155515251668</v>
+        <v>34.14053864399649</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>34.97950031985613</v>
+        <v>34.98512236854068</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>39.35006301053903</v>
+        <v>39.29678297181754</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>38.64608415519792</v>
+        <v>38.63661223255652</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>37.06502021249197</v>
+        <v>36.9647064431721</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>37.60465873841063</v>
+        <v>37.58199373697393</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>41.63212460290656</v>
+        <v>41.60328957258641</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>41.7460569821967</v>
+        <v>41.76782795991866</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>39.98199021156598</v>
+        <v>40.00455960057588</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>40.37941591268245</v>
+        <v>40.33869454438603</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>37.91307691693916</v>
+        <v>37.97840135716662</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>36.7089959734389</v>
+        <v>36.67205623547103</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>35.65430326675197</v>
+        <v>35.61434916908424</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>35.91761515796094</v>
+        <v>35.92624639845246</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>40.11658695237959</v>
+        <v>40.13129766159863</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>39.54319650377848</v>
+        <v>39.52572767486165</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>38.00627790514596</v>
+        <v>37.98141538243088</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>38.27896874731988</v>
+        <v>38.29386906449524</v>
       </c>
     </row>
     <row r="16">
